--- a/STUDY002_TI.xlsx
+++ b/STUDY002_TI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t xml:space="preserve">STUDYID</t>
   </si>
@@ -50,127 +50,121 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Patients must meet the following criteria for study entry:</t>
+    <t xml:space="preserve">Signed Informed Consent Form</t>
   </si>
   <si>
     <t xml:space="preserve">INCL002</t>
   </si>
   <si>
-    <t xml:space="preserve">Signed Informed Consent Form</t>
+    <t xml:space="preserve">Age ≥ 18 years at time of signing Informed Consent Form</t>
   </si>
   <si>
     <t xml:space="preserve">INCL003</t>
   </si>
   <si>
-    <t xml:space="preserve">Age ≥ 18 years at time of signing Informed Consent Form</t>
+    <t xml:space="preserve">Ability to comply with the study protocol, including willingness to remain in the post-treatment period</t>
   </si>
   <si>
     <t xml:space="preserve">INCL004</t>
   </si>
   <si>
-    <t xml:space="preserve">Ability to comply with the study protocol, including willingness to remain in the post-treatment period</t>
+    <t xml:space="preserve">ECOG Performance Status of 0 or 1 (see Appendix 3)</t>
   </si>
   <si>
     <t xml:space="preserve">INCL005</t>
   </si>
   <si>
-    <t xml:space="preserve">ECOG Performance Status of 0 or 1 (see Appendix 3)</t>
+    <t xml:space="preserve">Histologically or cytologically documented NSCLC with unresectable Stage III NSCLC of either squamous or non-squamous histology Staging should be based on the 8th revised editio... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">INCL006</t>
   </si>
   <si>
-    <t xml:space="preserve">Histologically or cytologically documented NSCLC with unresectable Stage III NSCLC of either squamous or non-squamous histology Staging should be based on the 8th revised editio... (As per the protocol)</t>
+    <t xml:space="preserve">Whole-body positron emission tomography (PET)-CT scan (from the base of skull to mid-thighs) for the purposes of staging, performed prior and within 42 days of the first dose of concurrent CRT</t>
   </si>
   <si>
     <t xml:space="preserve">INCL007</t>
   </si>
   <si>
-    <t xml:space="preserve">Whole-body positron emission tomography (PET)-CT scan (from the base of skull to mid-thighs) for the purposes of staging, performed prior and within 42 days of the first dose of concurrent CRT</t>
+    <t xml:space="preserve">At least two prior cycles of platinum-based chemotherapy concurrent with RT (CRT), which must be completed within 1 to 42 days prior to randomization in the study To ensure the... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">INCL008</t>
   </si>
   <si>
-    <t xml:space="preserve">At least two prior cycles of platinum-based chemotherapy concurrent with RT (CRT), which must be completed within 1 to 42 days prior to randomization in the study To ensure the... (As per the protocol)</t>
+    <t xml:space="preserve">The RT component in the CRT must have been at a total dose of radiation of 60 (± 10) Gy (54−66 Gy) administered by IMRT (preferred) or 3D-conforming technique Sites are encourag... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">INCL009</t>
   </si>
   <si>
-    <t xml:space="preserve">The RT component in the CRT must have been at a total dose of radiation of 60 (± 10) Gy (54−66 Gy) administered by IMRT (preferred) or 3D-conforming technique Sites are encourag... (As per the protocol)</t>
+    <t xml:space="preserve">No progression during or following concurrent platinum-based CRT</t>
   </si>
   <si>
     <t xml:space="preserve">INCL010</t>
   </si>
   <si>
-    <t xml:space="preserve">No progression during or following concurrent platinum-based CRT</t>
+    <t xml:space="preserve">Tumor PD-L1 expression, as determined by SP263 IHC assay and documented by means of central testing of a representative tumor tissue, in either a previously obtained archival tu... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">INCL011</t>
   </si>
   <si>
-    <t xml:space="preserve">Tumor PD-L1 expression, as determined by SP263 IHC assay and documented by means of central testing of a representative tumor tissue, in either a previously obtained archival tu... (As per the protocol)</t>
+    <t xml:space="preserve">Confirmed availability of representative tumor specimens in formalin- fixed, paraffin-embedded (FFPE) blocks (preferred) or at least 15−20 unstained serial slides, along with an... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">INCL012</t>
   </si>
   <si>
-    <t xml:space="preserve">Confirmed availability of representative tumor specimens in formalin- fixed, paraffin-embedded (FFPE) blocks (preferred) or at least 15−20 unstained serial slides, along with an... (As per the protocol)</t>
+    <t xml:space="preserve">Life expectancy ≥ 12 weeks</t>
   </si>
   <si>
     <t xml:space="preserve">INCL013</t>
   </si>
   <si>
-    <t xml:space="preserve">Life expectancy ≥ 12 weeks</t>
+    <t xml:space="preserve">Adequate hematologic and end-organ function, defined by the following laboratory test results, obtained within 14 days prior to initiation of study treatment (Day 1 of Cycle 1):... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">INCL014</t>
   </si>
   <si>
-    <t xml:space="preserve">Adequate hematologic and end-organ function, defined by the following laboratory test results, obtained within 14 days prior to initiation of study treatment (Day 1 of Cycle 1):... (As per the protocol)</t>
+    <t xml:space="preserve">Negative HIV test at screening</t>
   </si>
   <si>
     <t xml:space="preserve">INCL015</t>
   </si>
   <si>
-    <t xml:space="preserve">Negative HIV test at screening</t>
+    <t xml:space="preserve">Negative hepatitis B surface antigen (HBsAg) test at screening</t>
   </si>
   <si>
     <t xml:space="preserve">INCL016</t>
   </si>
   <si>
-    <t xml:space="preserve">Negative hepatitis B surface antigen (HBsAg) test at screening</t>
+    <t xml:space="preserve">Positive hepatitis B surface antibody (HBsAb) test at screening, or negative HBsAb at screening accompanied by either of the following: – Negative hepatitis B core antibody (HBc... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">INCL017</t>
   </si>
   <si>
-    <t xml:space="preserve">Positive hepatitis B surface antibody (HBsAb) test at screening, or negative HBsAb at screening accompanied by either of the following: – Negative hepatitis B core antibody (HBc... (As per the protocol)</t>
+    <t xml:space="preserve">Negative hepatitis C virus (HCV) antibody test at screening, or positive HCV antibody test followed by a negative HCV RNA test at screening The HCV RNA test will be performed on... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">INCL018</t>
   </si>
   <si>
-    <t xml:space="preserve">Negative hepatitis C virus (HCV) antibody test at screening, or positive HCV antibody test followed by a negative HCV RNA test at screening The HCV RNA test will be performed on... (As per the protocol)</t>
+    <t xml:space="preserve">For women of childbearing potential: agreement to remain abstinent (refrain from heterosexual intercourse) or use contraception, and agreement to refrain from donating eggs, as... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">INCL019</t>
   </si>
   <si>
-    <t xml:space="preserve">For women of childbearing potential: agreement to remain abstinent (refrain from heterosexual intercourse) or use contraception, and agreement to refrain from donating eggs, as... (As per the protocol)</t>
+    <t xml:space="preserve">For men: agreement to remain abstinent (refrain from heterosexual intercourse) or use a condom, and agreement to refrain from donating sperm, as defined below: With a female par... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">INCL020</t>
   </si>
   <si>
-    <t xml:space="preserve">For men: agreement to remain abstinent (refrain from heterosexual intercourse) or use a condom, and agreement to refrain from donating sperm, as defined below: With a female par... (As per the protocol)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCL021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 Exclusion Criteria</t>
+    <t xml:space="preserve">Any history of prior NSCLC</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL001</t>
@@ -179,223 +173,214 @@
     <t xml:space="preserve">Exclusion Criteria</t>
   </si>
   <si>
-    <t xml:space="preserve">Patients who meet any of the following criteria will be excluded from study entry:</t>
-  </si>
-  <si>
     <t xml:space="preserve">EXCL002</t>
   </si>
   <si>
-    <t xml:space="preserve">Any history of prior NSCLC NA NA 9 | Protocol XX12345, Version 1</t>
+    <t xml:space="preserve">NSCLC known to have a mutation in the EGFR gene or an ALK fusion oncogene are excluded from the study: – Patients with non-squamous NSCLC who have an unknown EGFR or ALK status... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL003</t>
   </si>
   <si>
-    <t xml:space="preserve">NSCLC known to have a mutation in the EGFR gene or an ALK fusion oncogene are excluded from the study: – Patients with non-squamous NSCLC who have an unknown EGFR or ALK status... (As per the protocol)</t>
+    <t xml:space="preserve">If a pleural effusion is present, the following criteria must be met to exclude malignant involvement (incurable T4 disease): – When pleural fluid is visible on both the compute... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL004</t>
   </si>
   <si>
-    <t xml:space="preserve">If a pleural effusion is present, the following criteria must be met to exclude malignant involvement (incurable T4 disease): – When pleural fluid is visible on both the compute... (As per the protocol)</t>
+    <t xml:space="preserve">Any evidence of Stage IV disease, including, but not limited to, the following: – Pleural effusion – Pericardial effusion – Brain metastases – No history of intracranial hemorrh... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL005</t>
   </si>
   <si>
-    <t xml:space="preserve">Any evidence of Stage IV disease, including, but not limited to, the following: – Pleural effusion – Pericardial effusion – Brain metastases – No history of intracranial hemorrh... (As per the protocol)</t>
+    <t xml:space="preserve">Pulmonary lymphoepithelioma-like carcinoma subtype of NSCLC</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL006</t>
   </si>
   <si>
-    <t xml:space="preserve">Pulmonary lymphoepithelioma-like carcinoma subtype of NSCLC</t>
+    <t xml:space="preserve">History of leptomeningeal disease</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL007</t>
   </si>
   <si>
-    <t xml:space="preserve">History of leptomeningeal disease</t>
+    <t xml:space="preserve">Concurrent enrollment in another clinical study, unless it is an observational (non- interventional) clinical study or the follow-up period of an interventional study</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL008</t>
   </si>
   <si>
-    <t xml:space="preserve">Concurrent enrollment in another clinical study, unless it is an observational (non- interventional) clinical study or the follow-up period of an interventional study</t>
+    <t xml:space="preserve">Treatment with sequential CRT for locally advanced NSCLC</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL009</t>
   </si>
   <si>
-    <t xml:space="preserve">Treatment with sequential CRT for locally advanced NSCLC</t>
+    <t xml:space="preserve">Patients with locally advanced NSCLC who have progressed during or after the definite concurrent CRT prior to randomization</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL010</t>
   </si>
   <si>
-    <t xml:space="preserve">Patients with locally advanced NSCLC who have progressed during or after the definite concurrent CRT prior to randomization</t>
+    <t xml:space="preserve">Any Grade &gt; 2 unresolved toxicity from previous CRT Patients with an irreversible toxicity that is managed and is not expected to be exacerbated by study drug treatment may be i... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL011</t>
   </si>
   <si>
-    <t xml:space="preserve">Any Grade &gt; 2 unresolved toxicity from previous CRT NA 10 | Protocol XX12345, Version 1 Patients with an irreversible toxicity that is managed and is not expected to be exacerba... (As per the protocol)</t>
+    <t xml:space="preserve">Grade ≥ 2 pneumonitis from prior CRT</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL012</t>
   </si>
   <si>
-    <t xml:space="preserve">Grade ≥ 2 pneumonitis from prior CRT</t>
+    <t xml:space="preserve">Any concurrent chemotherapy, immunotherapy, biologic, or hormonal therapy for cancer Note: Local treatment of isolated lesions, excluding target lesions, with palliative intent... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL013</t>
   </si>
   <si>
-    <t xml:space="preserve">Any concurrent chemotherapy, immunotherapy, biologic, or hormonal therapy for cancer Note: Local treatment of isolated lesions, excluding target lesions, with palliative intent... (As per the protocol)</t>
+    <t xml:space="preserve">Uncontrolled or symptomatic hypercalcemia (ionized calcium &gt; 1.5 mmol/L, calcium &gt; 12 mg/dL, or corrected calcium greater than ULN)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL014</t>
   </si>
   <si>
-    <t xml:space="preserve">Uncontrolled or symptomatic hypercalcemia (ionized calcium &gt; 1.5 mmol/L, calcium &gt; 12 mg/dL, or corrected calcium greater than ULN)</t>
+    <t xml:space="preserve">Active or history of autoimmune disease or immune deficiency, including, but not limited to, myasthenia gravis, myositis, autoimmune hepatitis, systemic lupus erythematosus, rhe... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL015</t>
   </si>
   <si>
-    <t xml:space="preserve">Active or history of autoimmune disease or immune deficiency, including, but not limited to, myasthenia gravis, myositis, autoimmune hepatitis, systemic lupus erythematosus, rhe... (As per the protocol)</t>
+    <t xml:space="preserve">History of idiopathic pulmonary fibrosis, organizing pneumonia (e.g., bronchiolitis obliterans), drug-induced pneumonitis, or idiopathic pneumonitis, or evidence of active pneum... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL016</t>
   </si>
   <si>
-    <t xml:space="preserve">History of idiopathic pulmonary fibrosis, organizing pneumonia (e.g., bronchiolitis obliterans), drug-induced pneumonitis, or idiopathic pneumonitis, or evidence of active pneum... (As per the protocol)</t>
+    <t xml:space="preserve">Active tuberculosis</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL017</t>
   </si>
   <si>
-    <t xml:space="preserve">Active tuberculosis NA 11 | Protocol XX12345, Version 1</t>
+    <t xml:space="preserve">Known clinically significant liver disease, including active viral, alcoholic, or other hepatitis, cirrhosis, and inherited liver disease, or current alcohol abuse</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL018</t>
   </si>
   <si>
-    <t xml:space="preserve">Known clinically significant liver disease, including active viral, alcoholic, or other hepatitis, cirrhosis, and inherited liver disease, or current alcohol abuse</t>
+    <t xml:space="preserve">Significant cardiovascular disease (such as New York Heart Association Class II or greater cardiac disease, myocardial infarction, or cerebrovascular accident) within 3 months p... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL019</t>
   </si>
   <si>
-    <t xml:space="preserve">Significant cardiovascular disease (such as New York Heart Association Class II or greater cardiac disease, myocardial infarction, or cerebrovascular accident) within 3 months p... (As per the protocol)</t>
+    <t xml:space="preserve">Major surgical procedure, other than for diagnosis, within 4 weeks prior to initiation of study treatment, or anticipation of need for a major surgical procedure during the study</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL020</t>
   </si>
   <si>
-    <t xml:space="preserve">Major surgical procedure, other than for diagnosis, within 4 weeks prior to initiation of study treatment, or anticipation of need for a major surgical procedure during the study</t>
+    <t xml:space="preserve">History of malignancy other than NSCLC within 5 years prior to screening, with the exception of malignancies with a negligible risk of metastasis or death (e.g., 5-year OS rate... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL021</t>
   </si>
   <si>
-    <t xml:space="preserve">History of malignancy other than NSCLC within 5 years prior to screening, with the exception of malignancies with a negligible risk of metastasis or death (e.g., 5-year OS rate... (As per the protocol)</t>
+    <t xml:space="preserve">Severe infection within 4 weeks prior to initiation of study treatment, including, but not limited to, hospitalization for complications of infection, bacteremia, or severe pneumonia</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL022</t>
   </si>
   <si>
-    <t xml:space="preserve">Severe infection within 4 weeks prior to initiation of study treatment, including, but not limited to, hospitalization for complications of infection, bacteremia, or severe pneumonia</t>
+    <t xml:space="preserve">Treatment with therapeutic oral or IV antibiotics within 2 weeks prior to initiation of study treatment Patients receiving prophylactic antibiotics (e.g., to prevent a urinary t... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL023</t>
   </si>
   <si>
-    <t xml:space="preserve">Treatment with therapeutic oral or IV antibiotics within 2 weeks prior to initiation of study treatment Patients receiving prophylactic antibiotics (e.g., to prevent a urinary t... (As per the protocol)</t>
+    <t xml:space="preserve">Prior allogeneic stem cell or solid organ transplantation</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL024</t>
   </si>
   <si>
-    <t xml:space="preserve">Prior allogeneic stem cell or solid organ transplantation</t>
+    <t xml:space="preserve">Any other disease, metabolic dysfunction, physical examination finding, or clinical laboratory finding that contraindicates the use of an investigational drug, may affect the in... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL025</t>
   </si>
   <si>
-    <t xml:space="preserve">Any other disease, metabolic dysfunction, physical examination finding, or clinical laboratory finding that contraindicates the use of an investigational drug, may affect the in... (As per the protocol)</t>
+    <t xml:space="preserve">Treatment with a live, attenuated vaccine within 4 weeks prior to initiation of study treatment, or anticipation of need for such a vaccine during study treatment or within 5 mo... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL026</t>
   </si>
   <si>
-    <t xml:space="preserve">Treatment with a live, attenuated vaccine within 4 weeks prior to initiation of study treatment, or anticipation of need for such a vaccine during study treatment or within 5 mo... (As per the protocol)</t>
+    <t xml:space="preserve">Current treatment with anti-viral therapy for HBV or HCV</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL027</t>
   </si>
   <si>
-    <t xml:space="preserve">Current treatment with anti-viral therapy for HBV or HCV</t>
+    <t xml:space="preserve">Active EBV infection or known or suspected chronic active EBV infection at screening Patients with a positive EBV viral capsid antigen (VCA) IgM test at screening are excluded.... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL028</t>
   </si>
   <si>
-    <t xml:space="preserve">Active EBV infection or known or suspected chronic active EBV infection at screening Patients with a positive EBV viral capsid antigen (VCA) IgM test at screening are excluded.... (As per the protocol)</t>
+    <t xml:space="preserve">Treatment with investigational therapy within 28 days prior to initiation of study treatment</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL029</t>
   </si>
   <si>
-    <t xml:space="preserve">Treatment with investigational therapy within 28 days prior to initiation of study treatment</t>
+    <t xml:space="preserve">Prior treatment with CD137 agonists or immune checkpoint blockade therapies, including anti−cytotoxic T lymphocyte−associated protein 4, anti-TIGIT, anti−PD-1, and anti−PD-L1 therapeutic antibodies</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL030</t>
   </si>
   <si>
-    <t xml:space="preserve">Prior treatment with CD137 agonists or immune checkpoint blockade therapies, including anti−cytotoxic T lymphocyte−associated protein 4, anti-TIGIT, anti−PD-1, and anti−PD-L1 therapeutic antibodies</t>
+    <t xml:space="preserve">Any prior Grade ≥ 3 immune-mediated adverse event or any unresolved Grade &gt; 1 immune-mediated adverse event while receiving any previous immunotherapy agent other than immune ch... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL031</t>
   </si>
   <si>
-    <t xml:space="preserve">Any prior Grade ≥ 3 immune-mediated adverse event or any unresolved Grade &gt; 1 immune-mediated adverse event while receiving any previous immunotherapy agent other than immune ch... (As per the protocol)</t>
+    <t xml:space="preserve">Treatment with systemic immunostimulatory agents (including, but not limited to, IFN and interleukin-2 [IL-2]) within 4 weeks or 5 drug- elimination half-lives (whichever is lon... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL032</t>
   </si>
   <si>
-    <t xml:space="preserve">Treatment with systemic immunostimulatory agents (including, but not limited to, IFN and interleukin-2 [IL-2]) within 4 weeks or 5 drug- elimination half-lives (whichever is lon... (As per the protocol)</t>
+    <t xml:space="preserve">Treatment with systemic immunosuppressive medication (including, but not limited to, corticosteroids, cyclophosphamide, azathioprine, methotrexate, thalidomide, and anti−tumor n... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL033</t>
   </si>
   <si>
-    <t xml:space="preserve">Treatment with systemic immunosuppressive medication (including, but not limited to, corticosteroids, cyclophosphamide, azathioprine, methotrexate, thalidomide, and anti−tumor n... (As per the protocol)</t>
+    <t xml:space="preserve">History of severe allergic anaphylactic reactions to chimeric or humanized antibodies or fusion proteins</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL034</t>
   </si>
   <si>
-    <t xml:space="preserve">History of severe allergic anaphylactic reactions to chimeric or humanized antibodies or fusion proteins</t>
+    <t xml:space="preserve">Known hypersensitivity to CHO cell products or to any component of the tiragolumab or atezolizumab or durvalumab formulation</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL035</t>
   </si>
   <si>
-    <t xml:space="preserve">Known hypersensitivity to CHO cell products or to any component of the tiragolumab or atezolizumab or durvalumab formulation</t>
+    <t xml:space="preserve">Pregnancy or breastfeeding, or intention of becoming pregnant during study treatment or within 5 months after the final dose of study treatment Women of childbearing potential m... (As per the protocol)</t>
   </si>
   <si>
     <t xml:space="preserve">EXCL036</t>
   </si>
   <si>
-    <t xml:space="preserve">Pregnancy or breastfeeding, or intention of becoming pregnant during study treatment or within 5 months after the final dose of study treatment Women of childbearing potential m... (As per the protocol)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXCL037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any condition that, in the opinion of the investigator, would interfere with the evaluation of the study drug or interpretation of patient NA 13 | Protocol XX12345, Version 1</t>
+    <t xml:space="preserve">Any condition that, in the opinion of the investigator, would interfere with the evaluation of the study drug or interpretation of patient</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1206,7 @@
         <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1230,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
@@ -1244,16 +1229,16 @@
         <v>53</v>
       </c>
       <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
         <v>54</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -1264,19 +1249,19 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
         <v>56</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -1287,19 +1272,19 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
         <v>58</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="26">
@@ -1310,19 +1295,19 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
         <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27">
@@ -1333,19 +1318,19 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
         <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="28">
@@ -1356,19 +1341,19 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
         <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -1379,19 +1364,19 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
         <v>66</v>
-      </c>
-      <c r="D29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -1402,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
         <v>68</v>
-      </c>
-      <c r="D30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31">
@@ -1425,19 +1410,19 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
         <v>70</v>
-      </c>
-      <c r="D31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="32">
@@ -1448,19 +1433,19 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
         <v>72</v>
-      </c>
-      <c r="D32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="33">
@@ -1471,19 +1456,19 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
         <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -1494,19 +1479,19 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
         <v>76</v>
-      </c>
-      <c r="D34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -1517,19 +1502,19 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
         <v>78</v>
-      </c>
-      <c r="D35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -1540,19 +1525,19 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
         <v>80</v>
-      </c>
-      <c r="D36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="37">
@@ -1563,19 +1548,19 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
         <v>82</v>
-      </c>
-      <c r="D37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="38">
@@ -1586,19 +1571,19 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
         <v>84</v>
-      </c>
-      <c r="D38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="39">
@@ -1609,19 +1594,19 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
         <v>86</v>
-      </c>
-      <c r="D39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="40">
@@ -1632,19 +1617,19 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
         <v>88</v>
-      </c>
-      <c r="D40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -1655,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
         <v>90</v>
-      </c>
-      <c r="D41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="42">
@@ -1678,19 +1663,19 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
         <v>92</v>
-      </c>
-      <c r="D42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="43">
@@ -1701,19 +1686,19 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
         <v>94</v>
-      </c>
-      <c r="D43" t="s">
-        <v>54</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="44">
@@ -1724,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
         <v>96</v>
-      </c>
-      <c r="D44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="45">
@@ -1747,19 +1732,19 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
         <v>98</v>
-      </c>
-      <c r="D45" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="46">
@@ -1770,19 +1755,19 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
         <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>54</v>
-      </c>
-      <c r="E46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="47">
@@ -1793,19 +1778,19 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
         <v>102</v>
-      </c>
-      <c r="D47" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="48">
@@ -1816,19 +1801,19 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
         <v>104</v>
-      </c>
-      <c r="D48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49">
@@ -1839,19 +1824,19 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
         <v>106</v>
-      </c>
-      <c r="D49" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="50">
@@ -1862,19 +1847,19 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
         <v>108</v>
-      </c>
-      <c r="D50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="51">
@@ -1885,19 +1870,19 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
         <v>110</v>
-      </c>
-      <c r="D51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="52">
@@ -1908,19 +1893,19 @@
         <v>8</v>
       </c>
       <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
         <v>112</v>
-      </c>
-      <c r="D52" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="53">
@@ -1931,19 +1916,19 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
         <v>114</v>
-      </c>
-      <c r="D53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="54">
@@ -1954,19 +1939,19 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
         <v>116</v>
-      </c>
-      <c r="D54" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="55">
@@ -1977,19 +1962,19 @@
         <v>8</v>
       </c>
       <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
         <v>118</v>
-      </c>
-      <c r="D55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="56">
@@ -2000,19 +1985,19 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
         <v>120</v>
-      </c>
-      <c r="D56" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="57">
@@ -2023,65 +2008,19 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
         <v>122</v>
-      </c>
-      <c r="D57" t="s">
-        <v>54</v>
-      </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" t="s">
-        <v>54</v>
-      </c>
-      <c r="E59" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
